--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yogir\Desktop\Projects\Bill-Split\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27260B50-3F69-40F7-AED8-09AD11E7765F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04127627-F0B3-41B9-83DB-7478577E41DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{DB6A83DD-805A-4E47-AAD3-E44B5F5BC7C2}"/>
+    <workbookView xWindow="-23148" yWindow="24" windowWidth="23256" windowHeight="12576" xr2:uid="{DB6A83DD-805A-4E47-AAD3-E44B5F5BC7C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,27 +33,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Chocolate </t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Biscuits </t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
     <t>Crackers</t>
   </si>
   <si>
     <t>Milk</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Toilet Paper</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice-Cream </t>
+  </si>
+  <si>
+    <t>Tobey</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Tobey, andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split </t>
   </si>
 </sst>
 </file>
@@ -405,20 +423,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF7F68-9E25-47F4-84E6-E687B5828368}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1">
         <v>1.27</v>
@@ -426,10 +448,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>3.69</v>
@@ -437,10 +459,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3.65</v>
@@ -448,13 +470,46 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
